--- a/plan.xlsx.xlsx
+++ b/plan.xlsx.xlsx
@@ -21,16 +21,16 @@
     <t>deneme1</t>
   </si>
   <si>
-    <t>TARİH</t>
-  </si>
-  <si>
-    <t>NOT</t>
-  </si>
-  <si>
     <t>DENEME2</t>
   </si>
   <si>
     <t>DENEME3</t>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>Not</t>
   </si>
 </sst>
 </file>
@@ -67,9 +67,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,48 +376,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>46069</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>46076</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>46081</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
-        <v>46069</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>46076</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>46081</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
